--- a/SanPhamImport.xlsx
+++ b/SanPhamImport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>STT</t>
   </si>
@@ -99,9 +99,6 @@
     <t>46</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>48</t>
   </si>
   <si>
@@ -142,6 +139,42 @@
   </si>
   <si>
     <t>samsung2.jpg</t>
+  </si>
+  <si>
+    <t>SP-00034</t>
+  </si>
+  <si>
+    <t>oppo4.jpg</t>
+  </si>
+  <si>
+    <t>realme.jpg</t>
+  </si>
+  <si>
+    <t>Điện thoại Lenovo Legion Y70 (Snapdragon 8+ Gen 1)</t>
+  </si>
+  <si>
+    <t>Điện thoại Xiaomi POCO M5 (Helio G99, màn 90Hz)</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>MM-200003</t>
+  </si>
+  <si>
+    <t>d9eeb5b8-0da1-4de1-bfef-08fba03bda92</t>
+  </si>
+  <si>
+    <t>oppo88.demo</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -572,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -622,19 +655,19 @@
         <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -660,10 +693,10 @@
         <v>500000</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="4">
         <v>3</v>
@@ -680,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>24</v>
@@ -692,10 +725,10 @@
         <v>300000</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="4">
         <v>2</v>
@@ -724,10 +757,10 @@
         <v>120000</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
@@ -747,19 +780,19 @@
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4">
         <v>18500000</v>
       </c>
       <c r="G6" s="4">
-        <v>2400000</v>
+        <v>24000000</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="4">
         <v>2</v>
@@ -779,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4">
         <v>26900000</v>
@@ -788,10 +821,10 @@
         <v>3200000</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="4">
         <v>3</v>
@@ -811,7 +844,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4">
         <v>2400000</v>
@@ -820,14 +853,174 @@
         <v>90000</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="4">
         <v>2</v>
       </c>
+    </row>
+    <row r="9" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5600000</v>
+      </c>
+      <c r="G9" s="4">
+        <v>500000</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4">
+        <v>7200000</v>
+      </c>
+      <c r="G10" s="4">
+        <v>300000</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4600000</v>
+      </c>
+      <c r="G11" s="4">
+        <v>120000</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="4">
+        <v>18500000</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2400000</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
